--- a/DRM_Output/2_Stock_Data.xlsx
+++ b/DRM_Output/2_Stock_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C496"/>
+  <dimension ref="A1:C497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3298.663330078125</v>
+        <v>3298.66357421875</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.01087759708893705</v>
+        <v>-0.01087752307695354</v>
       </c>
     </row>
     <row r="9">
@@ -551,7 +551,7 @@
         <v>3321.125732421875</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00678646656035338</v>
+        <v>0.006786392548369738</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3328.350830078125</v>
+        <v>3328.35107421875</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002173133608855504</v>
+        <v>0.002173206960682898</v>
       </c>
     </row>
     <row r="11">
@@ -577,7 +577,7 @@
         <v>3285.687255859375</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.01290109473223489</v>
+        <v>-0.01290116808406238</v>
       </c>
     </row>
     <row r="12">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3374.848388671875</v>
+        <v>3374.8486328125</v>
       </c>
       <c r="C13" t="n">
-        <v>0.009747002547201835</v>
+        <v>0.00974707488841192</v>
       </c>
     </row>
     <row r="14">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3428.816650390625</v>
+        <v>3428.81689453125</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0158648003251057</v>
+        <v>0.01586479918648292</v>
       </c>
     </row>
     <row r="15">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3432.355712890625</v>
+        <v>3432.35595703125</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001031620436416359</v>
+        <v>0.001031620363000034</v>
       </c>
     </row>
     <row r="16">
@@ -642,7 +642,7 @@
         <v>3439.5810546875</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002102855338687895</v>
+        <v>0.002102784209516979</v>
       </c>
     </row>
     <row r="17">
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3366.050048828125</v>
+        <v>3366.05029296875</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001651354565188405</v>
+        <v>0.001651427095487236</v>
       </c>
     </row>
     <row r="19">
@@ -678,10 +678,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3418.9375</v>
+        <v>3418.937255859375</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01558986570022296</v>
+        <v>0.01558972176158919</v>
       </c>
     </row>
     <row r="20">
@@ -691,10 +691,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3430.832275390625</v>
+        <v>3430.83203125</v>
       </c>
       <c r="C20" t="n">
-        <v>0.003473047339385543</v>
+        <v>0.003473047586959928</v>
       </c>
     </row>
     <row r="21">
@@ -707,7 +707,7 @@
         <v>3483.86669921875</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01533991978349896</v>
+        <v>0.01533999094425944</v>
       </c>
     </row>
     <row r="22">
@@ -717,10 +717,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3458.35693359375</v>
+        <v>3458.357177734375</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.007349195817020729</v>
+        <v>-0.007349125222625453</v>
       </c>
     </row>
     <row r="23">
@@ -733,7 +733,7 @@
         <v>3466.172119140625</v>
       </c>
       <c r="C23" t="n">
-        <v>0.002257247765346591</v>
+        <v>0.002257177170951282</v>
       </c>
     </row>
     <row r="24">
@@ -769,10 +769,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3381.9755859375</v>
+        <v>3381.975341796875</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0006542441395807102</v>
+        <v>0.0006541719508176756</v>
       </c>
     </row>
     <row r="27">
@@ -785,7 +785,7 @@
         <v>3400.013916015625</v>
       </c>
       <c r="C27" t="n">
-        <v>0.005319492933099743</v>
+        <v>0.005319565121862638</v>
       </c>
     </row>
     <row r="28">
@@ -795,10 +795,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3462.141357421875</v>
+        <v>3462.1416015625</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01810776250532644</v>
+        <v>0.0181078330225558</v>
       </c>
     </row>
     <row r="29">
@@ -808,10 +808,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3441.69482421875</v>
+        <v>3441.694580078125</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.005923255548253246</v>
+        <v>-0.00592339700164816</v>
       </c>
     </row>
     <row r="30">
@@ -821,10 +821,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3495.614013671875</v>
+        <v>3495.61376953125</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01554501219269931</v>
+        <v>0.01554501328687646</v>
       </c>
     </row>
     <row r="31">
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3485.341064453125</v>
+        <v>3485.34130859375</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.002943137871306054</v>
+        <v>-0.002942997981476684</v>
       </c>
     </row>
     <row r="32">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3445.381103515625</v>
+        <v>3445.380859375</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.01153138237747399</v>
+        <v>-0.01153152328558447</v>
       </c>
     </row>
     <row r="33">
@@ -863,7 +863,7 @@
         <v>3508.245849609375</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01808163115059916</v>
+        <v>0.01808170201086869</v>
       </c>
     </row>
     <row r="34">
@@ -925,10 +925,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3584.1357421875</v>
+        <v>3584.135986328125</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01380848963584181</v>
+        <v>0.01380855775285363</v>
       </c>
     </row>
     <row r="39">
@@ -941,7 +941,7 @@
         <v>3490.747802734375</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.0264013855035096</v>
+        <v>-0.02640145362052131</v>
       </c>
     </row>
     <row r="40">
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3528.299560546875</v>
+        <v>3528.2998046875</v>
       </c>
       <c r="C40" t="n">
-        <v>0.01070006060576939</v>
+        <v>0.01070012980074909</v>
       </c>
     </row>
     <row r="41">
@@ -967,7 +967,7 @@
         <v>3532.4775390625</v>
       </c>
       <c r="C41" t="n">
-        <v>0.001183433195608379</v>
+        <v>0.001183364000628775</v>
       </c>
     </row>
     <row r="42">
@@ -977,10 +977,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3645.083984375</v>
+        <v>3645.083740234375</v>
       </c>
       <c r="C42" t="n">
-        <v>0.03137992898836584</v>
+        <v>0.03137986201031143</v>
       </c>
     </row>
     <row r="43">
@@ -990,10 +990,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3571.6513671875</v>
+        <v>3571.651611328125</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.02035134949631707</v>
+        <v>-0.02035121416315426</v>
       </c>
     </row>
     <row r="44">
@@ -1003,10 +1003,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3420.70703125</v>
+        <v>3420.706787109375</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.04318079268810843</v>
+        <v>-0.04318093241461218</v>
       </c>
     </row>
     <row r="45">
@@ -1019,7 +1019,7 @@
         <v>3340.343994140625</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.02377347004860953</v>
+        <v>-0.02377339867721424</v>
       </c>
     </row>
     <row r="46">
@@ -1042,10 +1042,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3285.048583984375</v>
+        <v>3285.04833984375</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.01021169331360879</v>
+        <v>-0.0102117676323373</v>
       </c>
     </row>
     <row r="48">
@@ -1058,7 +1058,7 @@
         <v>3366.1484375</v>
       </c>
       <c r="C48" t="n">
-        <v>0.02438775240292852</v>
+        <v>0.02438782672165715</v>
       </c>
     </row>
     <row r="49">
@@ -1068,10 +1068,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>3337.10009765625</v>
+        <v>3337.099853515625</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.008666998255003101</v>
+        <v>-0.008667071414520904</v>
       </c>
     </row>
     <row r="50">
@@ -1081,10 +1081,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>3278.904296875</v>
+        <v>3278.904541015625</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.01759288486411944</v>
+        <v>-0.01759273724661395</v>
       </c>
     </row>
     <row r="51">
@@ -1097,7 +1097,7 @@
         <v>3268.140380859375</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.00328817848169689</v>
+        <v>-0.003288252939684579</v>
       </c>
     </row>
     <row r="52">
@@ -1120,10 +1120,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3265.141845703125</v>
+        <v>3265.14208984375</v>
       </c>
       <c r="C53" t="n">
-        <v>0.006630341156949561</v>
+        <v>0.006630415928775034</v>
       </c>
     </row>
     <row r="54">
@@ -1136,7 +1136,7 @@
         <v>3252.85400390625</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.003770440067042453</v>
+        <v>-0.003770514838867818</v>
       </c>
     </row>
     <row r="55">
@@ -1146,10 +1146,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>3244.301513671875</v>
+        <v>3244.3017578125</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.002632689074795407</v>
+        <v>-0.002632613822660306</v>
       </c>
     </row>
     <row r="56">
@@ -1162,7 +1162,7 @@
         <v>3329.28466796875</v>
       </c>
       <c r="C56" t="n">
-        <v>0.02585738953026409</v>
+        <v>0.02585731427812909</v>
       </c>
     </row>
     <row r="57">
@@ -1172,10 +1172,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>3283.180908203125</v>
+        <v>3283.1806640625</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.01394472495189057</v>
+        <v>-0.01394479931289623</v>
       </c>
     </row>
     <row r="58">
@@ -1188,7 +1188,7 @@
         <v>3299.7939453125</v>
       </c>
       <c r="C58" t="n">
-        <v>0.00504728416779177</v>
+        <v>0.005047358528797459</v>
       </c>
     </row>
     <row r="59">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>3411.31884765625</v>
+        <v>3411.318603515625</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.01039185494962814</v>
+        <v>-0.01039192651744245</v>
       </c>
     </row>
     <row r="65">
@@ -1279,7 +1279,7 @@
         <v>3418.544189453125</v>
       </c>
       <c r="C65" t="n">
-        <v>0.002115809483458168</v>
+        <v>0.002115881051272521</v>
       </c>
     </row>
     <row r="66">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>3571.84814453125</v>
+        <v>3571.847900390625</v>
       </c>
       <c r="C66" t="n">
-        <v>0.04386836453091184</v>
+        <v>0.04386829617956439</v>
       </c>
     </row>
     <row r="67">
@@ -1305,7 +1305,7 @@
         <v>3582.6123046875</v>
       </c>
       <c r="C67" t="n">
-        <v>0.003009078980786699</v>
+        <v>0.003009147332134029</v>
       </c>
     </row>
     <row r="68">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>3551.302978515625</v>
+        <v>3551.302734375</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.008777656014534604</v>
+        <v>-0.008777724761311501</v>
       </c>
     </row>
     <row r="69">
@@ -1331,7 +1331,7 @@
         <v>3580.400390625</v>
       </c>
       <c r="C69" t="n">
-        <v>0.008160062767979705</v>
+        <v>0.008160131514756626</v>
       </c>
     </row>
     <row r="70">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>3614.560791015625</v>
+        <v>3614.560546875</v>
       </c>
       <c r="C70" t="n">
-        <v>0.009495716852642101</v>
+        <v>0.009495649308991045</v>
       </c>
     </row>
     <row r="71">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>3578.82763671875</v>
+        <v>3578.827880859375</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.009935080964399304</v>
+        <v>-0.009934945202705419</v>
       </c>
     </row>
     <row r="72">
@@ -1370,7 +1370,7 @@
         <v>3560.198974609375</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.005218835957561974</v>
+        <v>-0.005218904175604713</v>
       </c>
     </row>
     <row r="73">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>3478.509033203125</v>
+        <v>3478.50927734375</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.02321267180070929</v>
+        <v>-0.0232126016152896</v>
       </c>
     </row>
     <row r="74">
@@ -1396,7 +1396,7 @@
         <v>3546.977294921875</v>
       </c>
       <c r="C74" t="n">
-        <v>0.01949201131932109</v>
+        <v>0.01949194113390151</v>
       </c>
     </row>
     <row r="75">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>3500.77490234375</v>
+        <v>3500.774658203125</v>
       </c>
       <c r="C76" t="n">
-        <v>0.006776294922956768</v>
+        <v>0.006776225183930267</v>
       </c>
     </row>
     <row r="77">
@@ -1435,7 +1435,7 @@
         <v>3442.284423828125</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.0168490169813279</v>
+        <v>-0.01684894724230148</v>
       </c>
     </row>
     <row r="78">
@@ -1497,10 +1497,10 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>3643.510986328125</v>
+        <v>3643.51123046875</v>
       </c>
       <c r="C82" t="n">
-        <v>0.009842080254561802</v>
+        <v>0.009842147261527835</v>
       </c>
     </row>
     <row r="83">
@@ -1513,7 +1513,7 @@
         <v>3700.035400390625</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0153946138312334</v>
+        <v>0.0153945468242674</v>
       </c>
     </row>
     <row r="84">
@@ -1601,10 +1601,10 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>3721.023193359375</v>
+        <v>3721.0234375</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.005952861504409866</v>
+        <v>-0.005952795893258222</v>
       </c>
     </row>
     <row r="91">
@@ -1617,7 +1617,7 @@
         <v>3689.516845703125</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.008503169087782337</v>
+        <v>-0.008503234698933933</v>
       </c>
     </row>
     <row r="92">
@@ -1679,10 +1679,10 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>3458.652099609375</v>
+        <v>3458.65185546875</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.00922297889652334</v>
+        <v>-0.009223049484898955</v>
       </c>
     </row>
     <row r="97">
@@ -1695,7 +1695,7 @@
         <v>3551.40087890625</v>
       </c>
       <c r="C97" t="n">
-        <v>0.02646319284222225</v>
+        <v>0.02646326343059795</v>
       </c>
     </row>
     <row r="98">
@@ -1783,10 +1783,10 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>3538.4248046875</v>
+        <v>3538.425048828125</v>
       </c>
       <c r="C104" t="n">
-        <v>0.001445634193180395</v>
+        <v>0.001445703190157996</v>
       </c>
     </row>
     <row r="105">
@@ -1799,7 +1799,7 @@
         <v>3440.416748046875</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.02808904595414142</v>
+        <v>-0.02808911495111893</v>
       </c>
     </row>
     <row r="106">
@@ -1809,10 +1809,10 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>3404.535888671875</v>
+        <v>3404.5361328125</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.01048398431055079</v>
+        <v>-0.01048391260015494</v>
       </c>
     </row>
     <row r="107">
@@ -1822,10 +1822,10 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>3369.589111328125</v>
+        <v>3369.58935546875</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.01031781591617226</v>
+        <v>-0.01031781517244735</v>
       </c>
     </row>
     <row r="108">
@@ -1838,7 +1838,7 @@
         <v>3427.6865234375</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0170947391402144</v>
+        <v>0.01709466668609382</v>
       </c>
     </row>
     <row r="109">
@@ -1926,10 +1926,10 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>3392.19873046875</v>
+        <v>3392.198974609375</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.002850455460588671</v>
+        <v>-0.002850383489387793</v>
       </c>
     </row>
     <row r="116">
@@ -1942,7 +1942,7 @@
         <v>3382.565185546875</v>
       </c>
       <c r="C116" t="n">
-        <v>-0.002843951917544948</v>
+        <v>-0.002844023888745886</v>
       </c>
     </row>
     <row r="117">
@@ -1965,10 +1965,10 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>3524.564208984375</v>
+        <v>3524.56396484375</v>
       </c>
       <c r="C118" t="n">
-        <v>0.03535577420064904</v>
+        <v>0.0353557049323313</v>
       </c>
     </row>
     <row r="119">
@@ -1981,7 +1981,7 @@
         <v>3564.376953125</v>
       </c>
       <c r="C119" t="n">
-        <v>0.01123247092106677</v>
+        <v>0.01123254018938458</v>
       </c>
     </row>
     <row r="120">
@@ -1991,10 +1991,10 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>3590.0341796875</v>
+        <v>3590.033935546875</v>
       </c>
       <c r="C120" t="n">
-        <v>0.007172452373450765</v>
+        <v>0.007172384368350992</v>
       </c>
     </row>
     <row r="121">
@@ -2007,7 +2007,7 @@
         <v>3596.12890625</v>
       </c>
       <c r="C121" t="n">
-        <v>0.001696239829500669</v>
+        <v>0.001696307834600704</v>
       </c>
     </row>
     <row r="122">
@@ -2069,10 +2069,10 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>3345.455810546875</v>
+        <v>3345.45556640625</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.1355292879341082</v>
+        <v>-0.1355293609109004</v>
       </c>
     </row>
     <row r="127">
@@ -2082,10 +2082,10 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>3351.1572265625</v>
+        <v>3351.157470703125</v>
       </c>
       <c r="C127" t="n">
-        <v>0.001702776421934493</v>
+        <v>0.00170292225135647</v>
       </c>
     </row>
     <row r="128">
@@ -2098,7 +2098,7 @@
         <v>3423.45947265625</v>
       </c>
       <c r="C128" t="n">
-        <v>0.02134585457232059</v>
+        <v>0.02134578171969112</v>
       </c>
     </row>
     <row r="129">
@@ -2134,10 +2134,10 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>3537.638671875</v>
+        <v>3537.638427734375</v>
       </c>
       <c r="C131" t="n">
-        <v>0.01538723583692948</v>
+        <v>0.01538716682461462</v>
       </c>
     </row>
     <row r="132">
@@ -2150,7 +2150,7 @@
         <v>3568.702392578125</v>
       </c>
       <c r="C132" t="n">
-        <v>0.008742591518945563</v>
+        <v>0.008742660531260247</v>
       </c>
     </row>
     <row r="133">
@@ -2160,10 +2160,10 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>3640.807861328125</v>
+        <v>3640.8076171875</v>
       </c>
       <c r="C133" t="n">
-        <v>0.02000354269892043</v>
+        <v>0.02000347564220038</v>
       </c>
     </row>
     <row r="134">
@@ -2173,10 +2173,10 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>3625.2265625</v>
+        <v>3625.226806640625</v>
       </c>
       <c r="C134" t="n">
-        <v>-0.004288810595342078</v>
+        <v>-0.004288676193695499</v>
       </c>
     </row>
     <row r="135">
@@ -2189,7 +2189,7 @@
         <v>3626.602783203125</v>
       </c>
       <c r="C135" t="n">
-        <v>0.0003795513253388216</v>
+        <v>0.0003794839804121851</v>
       </c>
     </row>
     <row r="136">
@@ -6883,6 +6883,19 @@
       </c>
       <c r="C496" t="n">
         <v>0.004740113921777352</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>4069.60009765625</v>
+      </c>
+      <c r="C497" t="n">
+        <v>-0.002870838557029329</v>
       </c>
     </row>
   </sheetData>

--- a/DRM_Output/2_Stock_Data.xlsx
+++ b/DRM_Output/2_Stock_Data.xlsx
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3298.66357421875</v>
+        <v>3298.663330078125</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.01087752307695354</v>
+        <v>-0.01087759708893705</v>
       </c>
     </row>
     <row r="9">
@@ -551,7 +551,7 @@
         <v>3321.125732421875</v>
       </c>
       <c r="C9" t="n">
-        <v>0.006786392548369738</v>
+        <v>0.00678646656035338</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3328.35107421875</v>
+        <v>3328.350830078125</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002173206960682898</v>
+        <v>0.002173133608855504</v>
       </c>
     </row>
     <row r="11">
@@ -577,7 +577,7 @@
         <v>3285.687255859375</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.01290116808406238</v>
+        <v>-0.01290109473223489</v>
       </c>
     </row>
     <row r="12">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3374.8486328125</v>
+        <v>3374.848388671875</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00974707488841192</v>
+        <v>0.009747002547201835</v>
       </c>
     </row>
     <row r="14">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3428.81689453125</v>
+        <v>3428.816650390625</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01586479918648292</v>
+        <v>0.0158648003251057</v>
       </c>
     </row>
     <row r="15">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3432.35595703125</v>
+        <v>3432.355712890625</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001031620363000034</v>
+        <v>0.001031620436416359</v>
       </c>
     </row>
     <row r="16">
@@ -642,7 +642,7 @@
         <v>3439.5810546875</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002102784209516979</v>
+        <v>0.002102855338687895</v>
       </c>
     </row>
     <row r="17">
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3366.05029296875</v>
+        <v>3366.050048828125</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001651427095487236</v>
+        <v>0.001651354565188405</v>
       </c>
     </row>
     <row r="19">
@@ -678,10 +678,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3418.937255859375</v>
+        <v>3418.9375</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01558972176158919</v>
+        <v>0.01558986570022296</v>
       </c>
     </row>
     <row r="20">
@@ -691,10 +691,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3430.83203125</v>
+        <v>3430.832275390625</v>
       </c>
       <c r="C20" t="n">
-        <v>0.003473047586959928</v>
+        <v>0.003473047339385543</v>
       </c>
     </row>
     <row r="21">
@@ -707,7 +707,7 @@
         <v>3483.86669921875</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01533999094425944</v>
+        <v>0.01533991978349896</v>
       </c>
     </row>
     <row r="22">
@@ -717,10 +717,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3458.357177734375</v>
+        <v>3458.35693359375</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.007349125222625453</v>
+        <v>-0.007349195817020729</v>
       </c>
     </row>
     <row r="23">
@@ -733,7 +733,7 @@
         <v>3466.172119140625</v>
       </c>
       <c r="C23" t="n">
-        <v>0.002257177170951282</v>
+        <v>0.002257247765346591</v>
       </c>
     </row>
     <row r="24">
@@ -769,10 +769,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3381.975341796875</v>
+        <v>3381.9755859375</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0006541719508176756</v>
+        <v>0.0006542441395807102</v>
       </c>
     </row>
     <row r="27">
@@ -785,7 +785,7 @@
         <v>3400.013916015625</v>
       </c>
       <c r="C27" t="n">
-        <v>0.005319565121862638</v>
+        <v>0.005319492933099743</v>
       </c>
     </row>
     <row r="28">
@@ -795,10 +795,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3462.1416015625</v>
+        <v>3462.141357421875</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0181078330225558</v>
+        <v>0.01810776250532644</v>
       </c>
     </row>
     <row r="29">
@@ -808,10 +808,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3441.694580078125</v>
+        <v>3441.69482421875</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.00592339700164816</v>
+        <v>-0.005923255548253246</v>
       </c>
     </row>
     <row r="30">
@@ -821,10 +821,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3495.61376953125</v>
+        <v>3495.614013671875</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01554501328687646</v>
+        <v>0.01554501219269931</v>
       </c>
     </row>
     <row r="31">
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3485.34130859375</v>
+        <v>3485.341064453125</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.002942997981476684</v>
+        <v>-0.002943137871306054</v>
       </c>
     </row>
     <row r="32">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3445.380859375</v>
+        <v>3445.381103515625</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.01153152328558447</v>
+        <v>-0.01153138237747399</v>
       </c>
     </row>
     <row r="33">
@@ -863,7 +863,7 @@
         <v>3508.245849609375</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01808170201086869</v>
+        <v>0.01808163115059916</v>
       </c>
     </row>
     <row r="34">
@@ -925,10 +925,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3584.135986328125</v>
+        <v>3584.1357421875</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01380855775285363</v>
+        <v>0.01380848963584181</v>
       </c>
     </row>
     <row r="39">
@@ -941,7 +941,7 @@
         <v>3490.747802734375</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.02640145362052131</v>
+        <v>-0.0264013855035096</v>
       </c>
     </row>
     <row r="40">
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3528.2998046875</v>
+        <v>3528.299560546875</v>
       </c>
       <c r="C40" t="n">
-        <v>0.01070012980074909</v>
+        <v>0.01070006060576939</v>
       </c>
     </row>
     <row r="41">
@@ -967,7 +967,7 @@
         <v>3532.4775390625</v>
       </c>
       <c r="C41" t="n">
-        <v>0.001183364000628775</v>
+        <v>0.001183433195608379</v>
       </c>
     </row>
     <row r="42">
@@ -977,10 +977,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3645.083740234375</v>
+        <v>3645.083984375</v>
       </c>
       <c r="C42" t="n">
-        <v>0.03137986201031143</v>
+        <v>0.03137992898836584</v>
       </c>
     </row>
     <row r="43">
@@ -990,10 +990,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3571.651611328125</v>
+        <v>3571.6513671875</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.02035121416315426</v>
+        <v>-0.02035134949631707</v>
       </c>
     </row>
     <row r="44">
@@ -1003,10 +1003,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3420.706787109375</v>
+        <v>3420.70703125</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.04318093241461218</v>
+        <v>-0.04318079268810843</v>
       </c>
     </row>
     <row r="45">
@@ -1019,7 +1019,7 @@
         <v>3340.343994140625</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.02377339867721424</v>
+        <v>-0.02377347004860953</v>
       </c>
     </row>
     <row r="46">
@@ -1042,10 +1042,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3285.04833984375</v>
+        <v>3285.048583984375</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.0102117676323373</v>
+        <v>-0.01021169331360879</v>
       </c>
     </row>
     <row r="48">
@@ -1058,7 +1058,7 @@
         <v>3366.1484375</v>
       </c>
       <c r="C48" t="n">
-        <v>0.02438782672165715</v>
+        <v>0.02438775240292852</v>
       </c>
     </row>
     <row r="49">
@@ -1068,10 +1068,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>3337.099853515625</v>
+        <v>3337.10009765625</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.008667071414520904</v>
+        <v>-0.008666998255003101</v>
       </c>
     </row>
     <row r="50">
@@ -1081,10 +1081,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>3278.904541015625</v>
+        <v>3278.904296875</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.01759273724661395</v>
+        <v>-0.01759288486411944</v>
       </c>
     </row>
     <row r="51">
@@ -1097,7 +1097,7 @@
         <v>3268.140380859375</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.003288252939684579</v>
+        <v>-0.00328817848169689</v>
       </c>
     </row>
     <row r="52">
@@ -1120,10 +1120,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3265.14208984375</v>
+        <v>3265.141845703125</v>
       </c>
       <c r="C53" t="n">
-        <v>0.006630415928775034</v>
+        <v>0.006630341156949561</v>
       </c>
     </row>
     <row r="54">
@@ -1136,7 +1136,7 @@
         <v>3252.85400390625</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.003770514838867818</v>
+        <v>-0.003770440067042453</v>
       </c>
     </row>
     <row r="55">
@@ -1146,10 +1146,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>3244.3017578125</v>
+        <v>3244.301513671875</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.002632613822660306</v>
+        <v>-0.002632689074795407</v>
       </c>
     </row>
     <row r="56">
@@ -1162,7 +1162,7 @@
         <v>3329.28466796875</v>
       </c>
       <c r="C56" t="n">
-        <v>0.02585731427812909</v>
+        <v>0.02585738953026409</v>
       </c>
     </row>
     <row r="57">
@@ -1172,10 +1172,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>3283.1806640625</v>
+        <v>3283.180908203125</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.01394479931289623</v>
+        <v>-0.01394472495189057</v>
       </c>
     </row>
     <row r="58">
@@ -1188,7 +1188,7 @@
         <v>3299.7939453125</v>
       </c>
       <c r="C58" t="n">
-        <v>0.005047358528797459</v>
+        <v>0.00504728416779177</v>
       </c>
     </row>
     <row r="59">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>3411.318603515625</v>
+        <v>3411.31884765625</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.01039192651744245</v>
+        <v>-0.01039185494962814</v>
       </c>
     </row>
     <row r="65">
@@ -1279,7 +1279,7 @@
         <v>3418.544189453125</v>
       </c>
       <c r="C65" t="n">
-        <v>0.002115881051272521</v>
+        <v>0.002115809483458168</v>
       </c>
     </row>
     <row r="66">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>3571.847900390625</v>
+        <v>3571.84814453125</v>
       </c>
       <c r="C66" t="n">
-        <v>0.04386829617956439</v>
+        <v>0.04386836453091184</v>
       </c>
     </row>
     <row r="67">
@@ -1305,7 +1305,7 @@
         <v>3582.6123046875</v>
       </c>
       <c r="C67" t="n">
-        <v>0.003009147332134029</v>
+        <v>0.003009078980786699</v>
       </c>
     </row>
     <row r="68">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>3551.302734375</v>
+        <v>3551.302978515625</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.008777724761311501</v>
+        <v>-0.008777656014534604</v>
       </c>
     </row>
     <row r="69">
@@ -1331,7 +1331,7 @@
         <v>3580.400390625</v>
       </c>
       <c r="C69" t="n">
-        <v>0.008160131514756626</v>
+        <v>0.008160062767979705</v>
       </c>
     </row>
     <row r="70">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>3614.560546875</v>
+        <v>3614.560791015625</v>
       </c>
       <c r="C70" t="n">
-        <v>0.009495649308991045</v>
+        <v>0.009495716852642101</v>
       </c>
     </row>
     <row r="71">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>3578.827880859375</v>
+        <v>3578.82763671875</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.009934945202705419</v>
+        <v>-0.009935080964399304</v>
       </c>
     </row>
     <row r="72">
@@ -1370,7 +1370,7 @@
         <v>3560.198974609375</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.005218904175604713</v>
+        <v>-0.005218835957561974</v>
       </c>
     </row>
     <row r="73">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>3478.50927734375</v>
+        <v>3478.509033203125</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.0232126016152896</v>
+        <v>-0.02321267180070929</v>
       </c>
     </row>
     <row r="74">
@@ -1396,7 +1396,7 @@
         <v>3546.977294921875</v>
       </c>
       <c r="C74" t="n">
-        <v>0.01949194113390151</v>
+        <v>0.01949201131932109</v>
       </c>
     </row>
     <row r="75">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>3500.774658203125</v>
+        <v>3500.77490234375</v>
       </c>
       <c r="C76" t="n">
-        <v>0.006776225183930267</v>
+        <v>0.006776294922956768</v>
       </c>
     </row>
     <row r="77">
@@ -1435,7 +1435,7 @@
         <v>3442.284423828125</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.01684894724230148</v>
+        <v>-0.0168490169813279</v>
       </c>
     </row>
     <row r="78">
@@ -1497,10 +1497,10 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>3643.51123046875</v>
+        <v>3643.510986328125</v>
       </c>
       <c r="C82" t="n">
-        <v>0.009842147261527835</v>
+        <v>0.009842080254561802</v>
       </c>
     </row>
     <row r="83">
@@ -1513,7 +1513,7 @@
         <v>3700.035400390625</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0153945468242674</v>
+        <v>0.0153946138312334</v>
       </c>
     </row>
     <row r="84">
@@ -1601,10 +1601,10 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>3721.0234375</v>
+        <v>3721.023193359375</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.005952795893258222</v>
+        <v>-0.005952861504409866</v>
       </c>
     </row>
     <row r="91">
@@ -1617,7 +1617,7 @@
         <v>3689.516845703125</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.008503234698933933</v>
+        <v>-0.008503169087782337</v>
       </c>
     </row>
     <row r="92">
@@ -1679,10 +1679,10 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>3458.65185546875</v>
+        <v>3458.652099609375</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.009223049484898955</v>
+        <v>-0.00922297889652334</v>
       </c>
     </row>
     <row r="97">
@@ -1695,7 +1695,7 @@
         <v>3551.40087890625</v>
       </c>
       <c r="C97" t="n">
-        <v>0.02646326343059795</v>
+        <v>0.02646319284222225</v>
       </c>
     </row>
     <row r="98">
@@ -1783,10 +1783,10 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>3538.425048828125</v>
+        <v>3538.4248046875</v>
       </c>
       <c r="C104" t="n">
-        <v>0.001445703190157996</v>
+        <v>0.001445634193180395</v>
       </c>
     </row>
     <row r="105">
@@ -1799,7 +1799,7 @@
         <v>3440.416748046875</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.02808911495111893</v>
+        <v>-0.02808904595414142</v>
       </c>
     </row>
     <row r="106">
@@ -1809,10 +1809,10 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>3404.5361328125</v>
+        <v>3404.535888671875</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.01048391260015494</v>
+        <v>-0.01048398431055079</v>
       </c>
     </row>
     <row r="107">
@@ -1822,10 +1822,10 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>3369.58935546875</v>
+        <v>3369.589111328125</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.01031781517244735</v>
+        <v>-0.01031781591617226</v>
       </c>
     </row>
     <row r="108">
@@ -1838,7 +1838,7 @@
         <v>3427.6865234375</v>
       </c>
       <c r="C108" t="n">
-        <v>0.01709466668609382</v>
+        <v>0.0170947391402144</v>
       </c>
     </row>
     <row r="109">
@@ -1926,10 +1926,10 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>3392.198974609375</v>
+        <v>3392.19873046875</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.002850383489387793</v>
+        <v>-0.002850455460588671</v>
       </c>
     </row>
     <row r="116">
@@ -1942,7 +1942,7 @@
         <v>3382.565185546875</v>
       </c>
       <c r="C116" t="n">
-        <v>-0.002844023888745886</v>
+        <v>-0.002843951917544948</v>
       </c>
     </row>
     <row r="117">
@@ -1965,10 +1965,10 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>3524.56396484375</v>
+        <v>3524.564208984375</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0353557049323313</v>
+        <v>0.03535577420064904</v>
       </c>
     </row>
     <row r="119">
@@ -1981,7 +1981,7 @@
         <v>3564.376953125</v>
       </c>
       <c r="C119" t="n">
-        <v>0.01123254018938458</v>
+        <v>0.01123247092106677</v>
       </c>
     </row>
     <row r="120">
@@ -1991,10 +1991,10 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>3590.033935546875</v>
+        <v>3590.0341796875</v>
       </c>
       <c r="C120" t="n">
-        <v>0.007172384368350992</v>
+        <v>0.007172452373450765</v>
       </c>
     </row>
     <row r="121">
@@ -2007,7 +2007,7 @@
         <v>3596.12890625</v>
       </c>
       <c r="C121" t="n">
-        <v>0.001696307834600704</v>
+        <v>0.001696239829500669</v>
       </c>
     </row>
     <row r="122">
@@ -2069,10 +2069,10 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>3345.45556640625</v>
+        <v>3345.455810546875</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.1355293609109004</v>
+        <v>-0.1355292879341082</v>
       </c>
     </row>
     <row r="127">
@@ -2082,10 +2082,10 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>3351.157470703125</v>
+        <v>3351.1572265625</v>
       </c>
       <c r="C127" t="n">
-        <v>0.00170292225135647</v>
+        <v>0.001702776421934493</v>
       </c>
     </row>
     <row r="128">
@@ -2098,7 +2098,7 @@
         <v>3423.45947265625</v>
       </c>
       <c r="C128" t="n">
-        <v>0.02134578171969112</v>
+        <v>0.02134585457232059</v>
       </c>
     </row>
     <row r="129">
@@ -2134,10 +2134,10 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>3537.638427734375</v>
+        <v>3537.638671875</v>
       </c>
       <c r="C131" t="n">
-        <v>0.01538716682461462</v>
+        <v>0.01538723583692948</v>
       </c>
     </row>
     <row r="132">
@@ -2150,7 +2150,7 @@
         <v>3568.702392578125</v>
       </c>
       <c r="C132" t="n">
-        <v>0.008742660531260247</v>
+        <v>0.008742591518945563</v>
       </c>
     </row>
     <row r="133">
@@ -2160,10 +2160,10 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>3640.8076171875</v>
+        <v>3640.807861328125</v>
       </c>
       <c r="C133" t="n">
-        <v>0.02000347564220038</v>
+        <v>0.02000354269892043</v>
       </c>
     </row>
     <row r="134">
@@ -2173,10 +2173,10 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>3625.226806640625</v>
+        <v>3625.2265625</v>
       </c>
       <c r="C134" t="n">
-        <v>-0.004288676193695499</v>
+        <v>-0.004288810595342078</v>
       </c>
     </row>
     <row r="135">
@@ -2189,7 +2189,7 @@
         <v>3626.602783203125</v>
       </c>
       <c r="C135" t="n">
-        <v>0.0003794839804121851</v>
+        <v>0.0003795513253388216</v>
       </c>
     </row>
     <row r="136">

--- a/DRM_Output/2_Stock_Data.xlsx
+++ b/DRM_Output/2_Stock_Data.xlsx
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3298.663330078125</v>
+        <v>3298.66357421875</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.01087759708893705</v>
+        <v>-0.01087752307695354</v>
       </c>
     </row>
     <row r="9">
@@ -551,7 +551,7 @@
         <v>3321.125732421875</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00678646656035338</v>
+        <v>0.006786392548369738</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3328.350830078125</v>
+        <v>3328.35107421875</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002173133608855504</v>
+        <v>0.002173206960682898</v>
       </c>
     </row>
     <row r="11">
@@ -577,7 +577,7 @@
         <v>3285.687255859375</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.01290109473223489</v>
+        <v>-0.01290116808406238</v>
       </c>
     </row>
     <row r="12">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3374.848388671875</v>
+        <v>3374.8486328125</v>
       </c>
       <c r="C13" t="n">
-        <v>0.009747002547201835</v>
+        <v>0.00974707488841192</v>
       </c>
     </row>
     <row r="14">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3428.816650390625</v>
+        <v>3428.81689453125</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0158648003251057</v>
+        <v>0.01586479918648292</v>
       </c>
     </row>
     <row r="15">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3432.355712890625</v>
+        <v>3432.35595703125</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001031620436416359</v>
+        <v>0.001031620363000034</v>
       </c>
     </row>
     <row r="16">
@@ -642,7 +642,7 @@
         <v>3439.5810546875</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002102855338687895</v>
+        <v>0.002102784209516979</v>
       </c>
     </row>
     <row r="17">
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3366.050048828125</v>
+        <v>3366.05029296875</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001651354565188405</v>
+        <v>0.001651427095487236</v>
       </c>
     </row>
     <row r="19">
@@ -678,10 +678,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3418.9375</v>
+        <v>3418.937255859375</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01558986570022296</v>
+        <v>0.01558972176158919</v>
       </c>
     </row>
     <row r="20">
@@ -691,10 +691,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3430.832275390625</v>
+        <v>3430.83203125</v>
       </c>
       <c r="C20" t="n">
-        <v>0.003473047339385543</v>
+        <v>0.003473047586959928</v>
       </c>
     </row>
     <row r="21">
@@ -707,7 +707,7 @@
         <v>3483.86669921875</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01533991978349896</v>
+        <v>0.01533999094425944</v>
       </c>
     </row>
     <row r="22">
@@ -717,10 +717,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3458.35693359375</v>
+        <v>3458.357177734375</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.007349195817020729</v>
+        <v>-0.007349125222625453</v>
       </c>
     </row>
     <row r="23">
@@ -733,7 +733,7 @@
         <v>3466.172119140625</v>
       </c>
       <c r="C23" t="n">
-        <v>0.002257247765346591</v>
+        <v>0.002257177170951282</v>
       </c>
     </row>
     <row r="24">
@@ -769,10 +769,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3381.9755859375</v>
+        <v>3381.975341796875</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0006542441395807102</v>
+        <v>0.0006541719508176756</v>
       </c>
     </row>
     <row r="27">
@@ -785,7 +785,7 @@
         <v>3400.013916015625</v>
       </c>
       <c r="C27" t="n">
-        <v>0.005319492933099743</v>
+        <v>0.005319565121862638</v>
       </c>
     </row>
     <row r="28">
@@ -795,10 +795,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3462.141357421875</v>
+        <v>3462.1416015625</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01810776250532644</v>
+        <v>0.0181078330225558</v>
       </c>
     </row>
     <row r="29">
@@ -808,10 +808,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3441.69482421875</v>
+        <v>3441.694580078125</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.005923255548253246</v>
+        <v>-0.00592339700164816</v>
       </c>
     </row>
     <row r="30">
@@ -821,10 +821,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3495.614013671875</v>
+        <v>3495.61376953125</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01554501219269931</v>
+        <v>0.01554501328687646</v>
       </c>
     </row>
     <row r="31">
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3485.341064453125</v>
+        <v>3485.34130859375</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.002943137871306054</v>
+        <v>-0.002942997981476684</v>
       </c>
     </row>
     <row r="32">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3445.381103515625</v>
+        <v>3445.380859375</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.01153138237747399</v>
+        <v>-0.01153152328558447</v>
       </c>
     </row>
     <row r="33">
@@ -863,7 +863,7 @@
         <v>3508.245849609375</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01808163115059916</v>
+        <v>0.01808170201086869</v>
       </c>
     </row>
     <row r="34">
@@ -925,10 +925,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3584.1357421875</v>
+        <v>3584.135986328125</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01380848963584181</v>
+        <v>0.01380855775285363</v>
       </c>
     </row>
     <row r="39">
@@ -941,7 +941,7 @@
         <v>3490.747802734375</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.0264013855035096</v>
+        <v>-0.02640145362052131</v>
       </c>
     </row>
     <row r="40">
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3528.299560546875</v>
+        <v>3528.2998046875</v>
       </c>
       <c r="C40" t="n">
-        <v>0.01070006060576939</v>
+        <v>0.01070012980074909</v>
       </c>
     </row>
     <row r="41">
@@ -967,7 +967,7 @@
         <v>3532.4775390625</v>
       </c>
       <c r="C41" t="n">
-        <v>0.001183433195608379</v>
+        <v>0.001183364000628775</v>
       </c>
     </row>
     <row r="42">
@@ -977,10 +977,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3645.083984375</v>
+        <v>3645.083740234375</v>
       </c>
       <c r="C42" t="n">
-        <v>0.03137992898836584</v>
+        <v>0.03137986201031143</v>
       </c>
     </row>
     <row r="43">
@@ -990,10 +990,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3571.6513671875</v>
+        <v>3571.651611328125</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.02035134949631707</v>
+        <v>-0.02035121416315426</v>
       </c>
     </row>
     <row r="44">
@@ -1003,10 +1003,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3420.70703125</v>
+        <v>3420.706787109375</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.04318079268810843</v>
+        <v>-0.04318093241461218</v>
       </c>
     </row>
     <row r="45">
@@ -1019,7 +1019,7 @@
         <v>3340.343994140625</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.02377347004860953</v>
+        <v>-0.02377339867721424</v>
       </c>
     </row>
     <row r="46">
@@ -1042,10 +1042,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3285.048583984375</v>
+        <v>3285.04833984375</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.01021169331360879</v>
+        <v>-0.0102117676323373</v>
       </c>
     </row>
     <row r="48">
@@ -1058,7 +1058,7 @@
         <v>3366.1484375</v>
       </c>
       <c r="C48" t="n">
-        <v>0.02438775240292852</v>
+        <v>0.02438782672165715</v>
       </c>
     </row>
     <row r="49">
@@ -1068,10 +1068,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>3337.10009765625</v>
+        <v>3337.099853515625</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.008666998255003101</v>
+        <v>-0.008667071414520904</v>
       </c>
     </row>
     <row r="50">
@@ -1081,10 +1081,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>3278.904296875</v>
+        <v>3278.904541015625</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.01759288486411944</v>
+        <v>-0.01759273724661395</v>
       </c>
     </row>
     <row r="51">
@@ -1097,7 +1097,7 @@
         <v>3268.140380859375</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.00328817848169689</v>
+        <v>-0.003288252939684579</v>
       </c>
     </row>
     <row r="52">
@@ -1120,10 +1120,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3265.141845703125</v>
+        <v>3265.14208984375</v>
       </c>
       <c r="C53" t="n">
-        <v>0.006630341156949561</v>
+        <v>0.006630415928775034</v>
       </c>
     </row>
     <row r="54">
@@ -1136,7 +1136,7 @@
         <v>3252.85400390625</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.003770440067042453</v>
+        <v>-0.003770514838867818</v>
       </c>
     </row>
     <row r="55">
@@ -1146,10 +1146,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>3244.301513671875</v>
+        <v>3244.3017578125</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.002632689074795407</v>
+        <v>-0.002632613822660306</v>
       </c>
     </row>
     <row r="56">
@@ -1162,7 +1162,7 @@
         <v>3329.28466796875</v>
       </c>
       <c r="C56" t="n">
-        <v>0.02585738953026409</v>
+        <v>0.02585731427812909</v>
       </c>
     </row>
     <row r="57">
@@ -1172,10 +1172,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>3283.180908203125</v>
+        <v>3283.1806640625</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.01394472495189057</v>
+        <v>-0.01394479931289623</v>
       </c>
     </row>
     <row r="58">
@@ -1188,7 +1188,7 @@
         <v>3299.7939453125</v>
       </c>
       <c r="C58" t="n">
-        <v>0.00504728416779177</v>
+        <v>0.005047358528797459</v>
       </c>
     </row>
     <row r="59">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>3411.31884765625</v>
+        <v>3411.318603515625</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.01039185494962814</v>
+        <v>-0.01039192651744245</v>
       </c>
     </row>
     <row r="65">
@@ -1279,7 +1279,7 @@
         <v>3418.544189453125</v>
       </c>
       <c r="C65" t="n">
-        <v>0.002115809483458168</v>
+        <v>0.002115881051272521</v>
       </c>
     </row>
     <row r="66">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>3571.84814453125</v>
+        <v>3571.847900390625</v>
       </c>
       <c r="C66" t="n">
-        <v>0.04386836453091184</v>
+        <v>0.04386829617956439</v>
       </c>
     </row>
     <row r="67">
@@ -1305,7 +1305,7 @@
         <v>3582.6123046875</v>
       </c>
       <c r="C67" t="n">
-        <v>0.003009078980786699</v>
+        <v>0.003009147332134029</v>
       </c>
     </row>
     <row r="68">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>3551.302978515625</v>
+        <v>3551.302734375</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.008777656014534604</v>
+        <v>-0.008777724761311501</v>
       </c>
     </row>
     <row r="69">
@@ -1331,7 +1331,7 @@
         <v>3580.400390625</v>
       </c>
       <c r="C69" t="n">
-        <v>0.008160062767979705</v>
+        <v>0.008160131514756626</v>
       </c>
     </row>
     <row r="70">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>3614.560791015625</v>
+        <v>3614.560546875</v>
       </c>
       <c r="C70" t="n">
-        <v>0.009495716852642101</v>
+        <v>0.009495649308991045</v>
       </c>
     </row>
     <row r="71">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>3578.82763671875</v>
+        <v>3578.827880859375</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.009935080964399304</v>
+        <v>-0.009934945202705419</v>
       </c>
     </row>
     <row r="72">
@@ -1370,7 +1370,7 @@
         <v>3560.198974609375</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.005218835957561974</v>
+        <v>-0.005218904175604713</v>
       </c>
     </row>
     <row r="73">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>3478.509033203125</v>
+        <v>3478.50927734375</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.02321267180070929</v>
+        <v>-0.0232126016152896</v>
       </c>
     </row>
     <row r="74">
@@ -1396,7 +1396,7 @@
         <v>3546.977294921875</v>
       </c>
       <c r="C74" t="n">
-        <v>0.01949201131932109</v>
+        <v>0.01949194113390151</v>
       </c>
     </row>
     <row r="75">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>3500.77490234375</v>
+        <v>3500.774658203125</v>
       </c>
       <c r="C76" t="n">
-        <v>0.006776294922956768</v>
+        <v>0.006776225183930267</v>
       </c>
     </row>
     <row r="77">
@@ -1435,7 +1435,7 @@
         <v>3442.284423828125</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.0168490169813279</v>
+        <v>-0.01684894724230148</v>
       </c>
     </row>
     <row r="78">
@@ -1497,10 +1497,10 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>3643.510986328125</v>
+        <v>3643.51123046875</v>
       </c>
       <c r="C82" t="n">
-        <v>0.009842080254561802</v>
+        <v>0.009842147261527835</v>
       </c>
     </row>
     <row r="83">
@@ -1513,7 +1513,7 @@
         <v>3700.035400390625</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0153946138312334</v>
+        <v>0.0153945468242674</v>
       </c>
     </row>
     <row r="84">
@@ -1601,10 +1601,10 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>3721.023193359375</v>
+        <v>3721.0234375</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.005952861504409866</v>
+        <v>-0.005952795893258222</v>
       </c>
     </row>
     <row r="91">
@@ -1617,7 +1617,7 @@
         <v>3689.516845703125</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.008503169087782337</v>
+        <v>-0.008503234698933933</v>
       </c>
     </row>
     <row r="92">
@@ -1679,10 +1679,10 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>3458.652099609375</v>
+        <v>3458.65185546875</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.00922297889652334</v>
+        <v>-0.009223049484898955</v>
       </c>
     </row>
     <row r="97">
@@ -1695,7 +1695,7 @@
         <v>3551.40087890625</v>
       </c>
       <c r="C97" t="n">
-        <v>0.02646319284222225</v>
+        <v>0.02646326343059795</v>
       </c>
     </row>
     <row r="98">
@@ -1783,10 +1783,10 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>3538.4248046875</v>
+        <v>3538.425048828125</v>
       </c>
       <c r="C104" t="n">
-        <v>0.001445634193180395</v>
+        <v>0.001445703190157996</v>
       </c>
     </row>
     <row r="105">
@@ -1799,7 +1799,7 @@
         <v>3440.416748046875</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.02808904595414142</v>
+        <v>-0.02808911495111893</v>
       </c>
     </row>
     <row r="106">
@@ -1809,10 +1809,10 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>3404.535888671875</v>
+        <v>3404.5361328125</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.01048398431055079</v>
+        <v>-0.01048391260015494</v>
       </c>
     </row>
     <row r="107">
@@ -1822,10 +1822,10 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>3369.589111328125</v>
+        <v>3369.58935546875</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.01031781591617226</v>
+        <v>-0.01031781517244735</v>
       </c>
     </row>
     <row r="108">
@@ -1838,7 +1838,7 @@
         <v>3427.6865234375</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0170947391402144</v>
+        <v>0.01709466668609382</v>
       </c>
     </row>
     <row r="109">
@@ -1926,10 +1926,10 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>3392.19873046875</v>
+        <v>3392.198974609375</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.002850455460588671</v>
+        <v>-0.002850383489387793</v>
       </c>
     </row>
     <row r="116">
@@ -1942,7 +1942,7 @@
         <v>3382.565185546875</v>
       </c>
       <c r="C116" t="n">
-        <v>-0.002843951917544948</v>
+        <v>-0.002844023888745886</v>
       </c>
     </row>
     <row r="117">
@@ -1965,10 +1965,10 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>3524.564208984375</v>
+        <v>3524.56396484375</v>
       </c>
       <c r="C118" t="n">
-        <v>0.03535577420064904</v>
+        <v>0.0353557049323313</v>
       </c>
     </row>
     <row r="119">
@@ -1981,7 +1981,7 @@
         <v>3564.376953125</v>
       </c>
       <c r="C119" t="n">
-        <v>0.01123247092106677</v>
+        <v>0.01123254018938458</v>
       </c>
     </row>
     <row r="120">
@@ -1991,10 +1991,10 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>3590.0341796875</v>
+        <v>3590.033935546875</v>
       </c>
       <c r="C120" t="n">
-        <v>0.007172452373450765</v>
+        <v>0.007172384368350992</v>
       </c>
     </row>
     <row r="121">
@@ -2007,7 +2007,7 @@
         <v>3596.12890625</v>
       </c>
       <c r="C121" t="n">
-        <v>0.001696239829500669</v>
+        <v>0.001696307834600704</v>
       </c>
     </row>
     <row r="122">
@@ -2069,10 +2069,10 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>3345.455810546875</v>
+        <v>3345.45556640625</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.1355292879341082</v>
+        <v>-0.1355293609109004</v>
       </c>
     </row>
     <row r="127">
@@ -2082,10 +2082,10 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>3351.1572265625</v>
+        <v>3351.157470703125</v>
       </c>
       <c r="C127" t="n">
-        <v>0.001702776421934493</v>
+        <v>0.00170292225135647</v>
       </c>
     </row>
     <row r="128">
@@ -2098,7 +2098,7 @@
         <v>3423.45947265625</v>
       </c>
       <c r="C128" t="n">
-        <v>0.02134585457232059</v>
+        <v>0.02134578171969112</v>
       </c>
     </row>
     <row r="129">
@@ -2134,10 +2134,10 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>3537.638671875</v>
+        <v>3537.638427734375</v>
       </c>
       <c r="C131" t="n">
-        <v>0.01538723583692948</v>
+        <v>0.01538716682461462</v>
       </c>
     </row>
     <row r="132">
@@ -2150,7 +2150,7 @@
         <v>3568.702392578125</v>
       </c>
       <c r="C132" t="n">
-        <v>0.008742591518945563</v>
+        <v>0.008742660531260247</v>
       </c>
     </row>
     <row r="133">
@@ -2160,10 +2160,10 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>3640.807861328125</v>
+        <v>3640.8076171875</v>
       </c>
       <c r="C133" t="n">
-        <v>0.02000354269892043</v>
+        <v>0.02000347564220038</v>
       </c>
     </row>
     <row r="134">
@@ -2173,10 +2173,10 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>3625.2265625</v>
+        <v>3625.226806640625</v>
       </c>
       <c r="C134" t="n">
-        <v>-0.004288810595342078</v>
+        <v>-0.004288676193695499</v>
       </c>
     </row>
     <row r="135">
@@ -2189,7 +2189,7 @@
         <v>3626.602783203125</v>
       </c>
       <c r="C135" t="n">
-        <v>0.0003795513253388216</v>
+        <v>0.0003794839804121851</v>
       </c>
     </row>
     <row r="136">
